--- a/medicine/Psychotrope/Allen_Carr/Allen_Carr.xlsx
+++ b/medicine/Psychotrope/Allen_Carr/Allen_Carr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allen Carr (né en 1934 à Londres, Royaume-Uni et mort le 29 novembre 2006 à Benalmádena (Malaga), en Espagne) est un auteur à succès, ancien expert comptable et inventeur d'une méthode pour arrêter de fumer et de plusieurs méthodes dérivées.
 Pour Allen Carr, la principale difficulté des fumeurs est la « peur d'arrêter » plutôt que la dépendance physique à la nicotine. Selon lui, l'usage de produits pharmaceutiques compensant le manque de nicotine, renforçant cette peur et le sentiment de sacrifice, rendent le sevrage plus difficile.
@@ -513,9 +525,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancien très gros fumeur, Allen Carr arrête de fumer à 49 ans. Il meurt le 29 novembre 2006, à 72 ans, des suites d'un cancer du poumon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien très gros fumeur, Allen Carr arrête de fumer à 49 ans. Il meurt le 29 novembre 2006, à 72 ans, des suites d'un cancer du poumon.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthode est décrite pour la première fois en 1983 dans le succès de librairie The Easy Way to Stop Smoking, traduit en français sous le titre « La méthode simple pour en finir avec la cigarette ». Selon son éditeur, cet ouvrage a été vendu à plus de 13 millions d'exemplaires, dont 1 million en français (2010)[réf. nécessaire].
 </t>
@@ -577,11 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description
-Le programme consiste en une séance initiale de quatre à cinq heures, d'un suivi téléphonique personnel et quelques semaines plus tard et, pour ceux qui en ressentiraient le besoin, d'une à deux séances supplémentaires de deux heures[2].
-Taux de succès des prestations Allen Carr
-Une étude financée par le gouvernement autrichien et confiée à une équipe médicale universitaire de Vienne a mesuré qu'un an après la participation à ce programme, 53,30 % des participants en moyenne restaient non fumeurs. Les mêmes universitaires ont confirmé ce chiffre dans une étude sur l'efficacité à 36 mois[réf. nécessaire].
-Une étude autrichienne en 2003 basée sur les déclarations de 357 participants aux sessions locales d'Allen Carr indique un taux de succès après 12 mois situé entre 40 et 55 %[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le programme consiste en une séance initiale de quatre à cinq heures, d'un suivi téléphonique personnel et quelques semaines plus tard et, pour ceux qui en ressentiraient le besoin, d'une à deux séances supplémentaires de deux heures.
 </t>
         </is>
       </c>
@@ -607,13 +625,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Évaluation et limites d'efficacité de la méthode</t>
+          <t>Programmes d'aide</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pour certains médecins et chercheurs, l'efficacité de cette méthode demeure douteuse et controversée, malgré d'intenses campagnes promotionnelles. En effet, selon le National Institute for Health and Clinical Excellence (en) (NICE, organisme britannique en charge d'évaluer scientifiquement l'efficacité des traitements), les services d'aide à l'arrêt au tabac du NHS ont commandé une synthèse au NICE sur les traitements non proposés par le NHS. La Méthode facile d'Allen Carr a donc été évaluée à l'instar d'autres méthodes comme l'acupuncture ou les méthodes aversives. Le rapport concluait qu'il n'y avait pas d'études contrôlées sur l'efficacité de la méthode de sevrage au tabac proposée par Allen Carr[4].
-Un pneumologue et tabacologue influent (le Pr Bertrand Dautzenberg de l'hôpital de la Pitié-Salpêtrière) considère que la Méthode facile d'Allen Carr repose plus sur une « série d'incantation que sur une méthode éprouvée ». Selon lui, si les méthodes de coaching sont acceptables, il s'inquiète qu'Allen Carr tienne pour vrai que la dépendance physique n'est pas importante et discrédite les substituts nicotiniques. En définitive, selon le Pr. Dautzenberg, les médecins devraient déconseiller la Méthode facile d'Allen Carr aux patients fumeurs désireux d'arrêter[5].
+          <t>Taux de succès des prestations Allen Carr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude financée par le gouvernement autrichien et confiée à une équipe médicale universitaire de Vienne a mesuré qu'un an après la participation à ce programme, 53,30 % des participants en moyenne restaient non fumeurs. Les mêmes universitaires ont confirmé ce chiffre dans une étude sur l'efficacité à 36 mois[réf. nécessaire].
+Une étude autrichienne en 2003 basée sur les déclarations de 357 participants aux sessions locales d'Allen Carr indique un taux de succès après 12 mois situé entre 40 et 55 %.
 </t>
         </is>
       </c>
@@ -639,10 +663,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Évaluation et limites d'efficacité de la méthode</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour certains médecins et chercheurs, l'efficacité de cette méthode demeure douteuse et controversée, malgré d'intenses campagnes promotionnelles. En effet, selon le National Institute for Health and Clinical Excellence (en) (NICE, organisme britannique en charge d'évaluer scientifiquement l'efficacité des traitements), les services d'aide à l'arrêt au tabac du NHS ont commandé une synthèse au NICE sur les traitements non proposés par le NHS. La Méthode facile d'Allen Carr a donc été évaluée à l'instar d'autres méthodes comme l'acupuncture ou les méthodes aversives. Le rapport concluait qu'il n'y avait pas d'études contrôlées sur l'efficacité de la méthode de sevrage au tabac proposée par Allen Carr.
+Un pneumologue et tabacologue influent (le Pr Bertrand Dautzenberg de l'hôpital de la Pitié-Salpêtrière) considère que la Méthode facile d'Allen Carr repose plus sur une « série d'incantation que sur une méthode éprouvée ». Selon lui, si les méthodes de coaching sont acceptables, il s'inquiète qu'Allen Carr tienne pour vrai que la dépendance physique n'est pas importante et discrédite les substituts nicotiniques. En définitive, selon le Pr. Dautzenberg, les médecins devraient déconseiller la Méthode facile d'Allen Carr aux patients fumeurs désireux d'arrêter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allen_Carr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allen_Carr</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La méthode simple pour perdre du poids, Pocket, 2001.
 La méthode simple pour en finir avec la cigarette, Pocket, 2004.
